--- a/simuPlantData.xlsx
+++ b/simuPlantData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="7155" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="7155" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Jan18" sheetId="2" r:id="rId1"/>
@@ -697,9 +697,6 @@
     <t>TKN (mg/L)</t>
   </si>
   <si>
-    <t>CBOD5 (mg/L)</t>
-  </si>
-  <si>
     <t>TSS (mg/L)</t>
   </si>
   <si>
@@ -728,6 +725,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CBOD (mg/L)</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,10 +1117,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -1135,16 +1135,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,10 +2639,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -2657,16 +2657,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -3886,7 +3886,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B31"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,10 +3902,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -3920,16 +3920,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5085,7 +5085,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5101,10 +5101,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -5119,16 +5119,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5853,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5871,10 +5871,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -5889,16 +5889,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7043,7 +7043,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7059,7 +7059,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7075,10 +7075,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -7093,16 +7093,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8182,7 +8182,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8199,10 +8199,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -8217,16 +8217,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -9409,12 +9409,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9430,7 +9430,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B31"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9446,10 +9446,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -9464,16 +9464,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -10629,7 +10629,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B32"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10645,10 +10645,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -10663,16 +10663,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -11866,7 +11866,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11882,10 +11882,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -11900,16 +11900,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -12634,7 +12634,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -12650,7 +12650,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12666,10 +12666,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -12684,16 +12684,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -13770,7 +13770,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13786,10 +13786,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -13804,16 +13804,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -15004,7 +15004,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15022,10 +15022,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -15040,16 +15040,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -16197,7 +16197,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -16210,7 +16210,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16227,10 +16227,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -16245,16 +16245,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -17448,7 +17448,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B31"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17465,10 +17465,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -17483,16 +17483,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -18648,7 +18648,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18664,10 +18664,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -18682,16 +18682,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -19884,8 +19884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19901,10 +19901,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -19919,16 +19919,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -21122,7 +21122,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B31"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21138,10 +21138,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -21156,16 +21156,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">

--- a/simuPlantData.xlsx
+++ b/simuPlantData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="7155" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="7155" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Jan18" sheetId="2" r:id="rId1"/>
@@ -697,6 +697,9 @@
     <t>TKN (mg/L)</t>
   </si>
   <si>
+    <t>CBOD5 (mg/L)</t>
+  </si>
+  <si>
     <t>TSS (mg/L)</t>
   </si>
   <si>
@@ -725,9 +728,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>CBOD (mg/L)</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,10 +1117,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -1135,16 +1135,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,10 +2639,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -2657,16 +2657,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -3886,7 +3886,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,10 +3902,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -3920,16 +3920,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5085,7 +5085,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5101,10 +5101,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -5119,16 +5119,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5853,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5871,10 +5871,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -5889,16 +5889,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7043,7 +7043,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7059,7 +7059,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7075,10 +7075,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -7093,16 +7093,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8182,7 +8182,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8199,10 +8199,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -8217,16 +8217,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -9409,12 +9409,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -9430,7 +9430,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9446,10 +9446,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -9464,16 +9464,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -10629,7 +10629,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B3" sqref="B3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10645,10 +10645,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -10663,16 +10663,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -11866,7 +11866,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11882,10 +11882,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -11900,16 +11900,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -12634,7 +12634,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -12650,7 +12650,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12666,10 +12666,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -12684,16 +12684,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -13770,7 +13770,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13786,10 +13786,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -13804,16 +13804,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -15004,7 +15004,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15022,10 +15022,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -15040,16 +15040,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -16197,7 +16197,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -16210,7 +16210,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16227,10 +16227,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -16245,16 +16245,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -17448,7 +17448,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="B3" sqref="B3:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17465,10 +17465,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -17483,16 +17483,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -18648,7 +18648,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18664,10 +18664,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -18682,16 +18682,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -19884,8 +19884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19901,10 +19901,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -19919,16 +19919,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -21122,7 +21122,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="B3" sqref="B3:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21138,10 +21138,10 @@
         <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>217</v>
@@ -21156,16 +21156,16 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
